--- a/KS_Statistic.xlsx
+++ b/KS_Statistic.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="KS_Statistic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -684,31 +684,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.50882047734348</c:v>
+                  <c:v>19.381443298969074</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.910757523348323</c:v>
+                  <c:v>36.185567010309278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.715323417502589</c:v>
+                  <c:v>50.996563573883158</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.818747838118298</c:v>
+                  <c:v>64.914089347079042</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73.607748184019371</c:v>
+                  <c:v>75.154639175257728</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83.189207886544452</c:v>
+                  <c:v>82.268041237113394</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90.487720511933588</c:v>
+                  <c:v>90.274914089347078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93.877551020408163</c:v>
+                  <c:v>93.024054982817873</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97.163611207194748</c:v>
+                  <c:v>96.357388316151201</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>100</c:v>
@@ -726,11 +726,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="168098432"/>
-        <c:axId val="168096896"/>
+        <c:axId val="129070208"/>
+        <c:axId val="129691648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168098432"/>
+        <c:axId val="129070208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -740,12 +740,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168096896"/>
+        <c:crossAx val="129691648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168096896"/>
+        <c:axId val="129691648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,7 +756,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168098432"/>
+        <c:crossAx val="129070208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1103,7 +1103,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,29 +1163,29 @@
         <v>6854</v>
       </c>
       <c r="C3" s="1">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="D3" s="1">
         <v>564</v>
       </c>
       <c r="E3" s="2">
         <f>D3/D$12*100</f>
-        <v>19.50882047734348</v>
+        <v>19.381443298969074</v>
       </c>
       <c r="F3" s="1">
         <f>B3-C3</f>
-        <v>6290</v>
+        <v>6309</v>
       </c>
       <c r="G3" s="1">
         <v>6290</v>
       </c>
       <c r="H3" s="2">
         <f>G3/G$12*100</f>
-        <v>9.581841724426841</v>
+        <v>9.5846158534727088</v>
       </c>
       <c r="I3" s="2">
         <f>E3-H3</f>
-        <v>9.9269787529166393</v>
+        <v>9.7968274454963655</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1196,31 +1196,31 @@
         <v>6853</v>
       </c>
       <c r="C4" s="1">
-        <v>532</v>
+        <v>489</v>
       </c>
       <c r="D4" s="1">
         <f>D3+C4</f>
-        <v>1096</v>
+        <v>1053</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:E12" si="0">D4/D$12*100</f>
-        <v>37.910757523348323</v>
+        <v>36.185567010309278</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:F12" si="1">B4-C4</f>
-        <v>6321</v>
+        <v>6364</v>
       </c>
       <c r="G4" s="1">
         <f>G3+F4</f>
-        <v>12611</v>
+        <v>12654</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" ref="H4:H12" si="2">G4/G$12*100</f>
-        <v>19.210907152106024</v>
+        <v>19.281991893456862</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" ref="I4:I12" si="3">E4-H4</f>
-        <v>18.699850371242299</v>
+        <v>16.903575116852416</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1231,31 +1231,31 @@
         <v>6854</v>
       </c>
       <c r="C5" s="1">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D12" si="4">D4+C5</f>
-        <v>1524</v>
+        <v>1484</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>52.715323417502589</v>
+        <v>50.996563573883158</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>6426</v>
+        <v>6423</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G12" si="5">G4+F5</f>
-        <v>19037</v>
+        <v>19077</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="2"/>
-        <v>28.999923832736691</v>
+        <v>29.06927132538933</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="3"/>
-        <v>23.715399584765898</v>
+        <v>21.927292248493828</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1266,31 +1266,31 @@
         <v>6853</v>
       </c>
       <c r="C6" s="1">
-        <v>321</v>
+        <v>405</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="4"/>
-        <v>1845</v>
+        <v>1889</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>63.818747838118298</v>
+        <v>64.914089347079042</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>6532</v>
+        <v>6448</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="5"/>
-        <v>25569</v>
+        <v>25525</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="2"/>
-        <v>38.950415111585038</v>
+        <v>38.894645414927012</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="3"/>
-        <v>24.868332726533261</v>
+        <v>26.019443932152029</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1301,31 +1301,31 @@
         <v>6854</v>
       </c>
       <c r="C7" s="1">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="4"/>
-        <v>2128</v>
+        <v>2187</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>73.607748184019371</v>
+        <v>75.154639175257728</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>6571</v>
+        <v>6556</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="5"/>
-        <v>32140</v>
+        <v>32081</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="2"/>
-        <v>48.960316855815371</v>
+        <v>48.88458842531923</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="3"/>
-        <v>24.647431328204</v>
+        <v>26.270050749938498</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1336,31 +1336,31 @@
         <v>6853</v>
       </c>
       <c r="C8" s="1">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="4"/>
-        <v>2405</v>
+        <v>2394</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>83.189207886544452</v>
+        <v>82.268041237113394</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>6576</v>
+        <v>6646</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="5"/>
-        <v>38716</v>
+        <v>38727</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>58.977835326376727</v>
+        <v>59.011672203090235</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="3"/>
-        <v>24.211372560167725</v>
+        <v>23.256369034023159</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1371,31 +1371,31 @@
         <v>6854</v>
       </c>
       <c r="C9" s="1">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="4"/>
-        <v>2616</v>
+        <v>2627</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>90.487720511933588</v>
+        <v>90.274914089347078</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>6643</v>
+        <v>6621</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="5"/>
-        <v>45359</v>
+        <v>45348</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>69.097417929773783</v>
+        <v>69.100661323256034</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="3"/>
-        <v>21.390302582159805</v>
+        <v>21.174252766091044</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1406,31 +1406,31 @@
         <v>6853</v>
       </c>
       <c r="C10" s="1">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="4"/>
-        <v>2714</v>
+        <v>2707</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>93.877551020408163</v>
+        <v>93.024054982817873</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>6755</v>
+        <v>6773</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="5"/>
-        <v>52114</v>
+        <v>52121</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="2"/>
-        <v>79.387615202985756</v>
+        <v>79.421265961661533</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="3"/>
-        <v>14.489935817422406</v>
+        <v>13.60278902115634</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1441,31 +1441,31 @@
         <v>6854</v>
       </c>
       <c r="C11" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="4"/>
-        <v>2809</v>
+        <v>2804</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>97.163611207194748</v>
+        <v>96.357388316151201</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>6759</v>
+        <v>6757</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="5"/>
-        <v>58873</v>
+        <v>58878</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="2"/>
-        <v>89.683905857262545</v>
+        <v>89.717490019199715</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="3"/>
-        <v>7.4797053499322033</v>
+        <v>6.6398982969514861</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1476,11 +1476,11 @@
         <v>6854</v>
       </c>
       <c r="C12" s="1">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="4"/>
-        <v>2891</v>
+        <v>2910</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
@@ -1488,11 +1488,11 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>6772</v>
+        <v>6748</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="5"/>
-        <v>65645</v>
+        <v>65626</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="2"/>
